--- a/Documentation/Draft/003-LogicalDesign/Relational_Model_Mapping.xlsx
+++ b/Documentation/Draft/003-LogicalDesign/Relational_Model_Mapping.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\bits\dda-assignment\courier-mgmt-group-bm\Documentation\003-LogicalDesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\bits\dda-assignment\courier-mgmt-group-bm\Documentation\Draft\003-LogicalDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A32C41-8812-4FDE-A1B5-466337A39C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1320F267-9B65-4343-92C2-B73AE5F26FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="2" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="3" xr2:uid="{B7C97A22-F115-4181-8B0D-AEB61CB2F847}"/>
   </bookViews>
   <sheets>
     <sheet name="V1" sheetId="3" r:id="rId1"/>
     <sheet name="V2" sheetId="1" r:id="rId2"/>
     <sheet name="V3" sheetId="4" r:id="rId3"/>
+    <sheet name="V4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="57">
   <si>
     <t>shipment</t>
   </si>
@@ -196,6 +197,18 @@
   <si>
     <t>creation_datetime</t>
   </si>
+  <si>
+    <t>state_code</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>address_line</t>
+  </si>
+  <si>
+    <t>dest_address_line</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -275,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12301,6 +12315,5282 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>40364</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71287216-D064-4E7C-87BA-D5AF4832A460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7183821" y="1128709"/>
+          <a:ext cx="0" cy="199172"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>29167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D821FA60-ED9E-4DA7-ABFD-44C9C8797395}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1344623" y="1316684"/>
+          <a:ext cx="5839198" cy="3039"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C53B41-A390-49FD-980A-E643866BCCE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1344623" y="1104798"/>
+          <a:ext cx="0" cy="191551"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>117705</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CE9F44-91B3-4CFA-8EC2-1F5505A2E209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1184603" y="1404547"/>
+          <a:ext cx="7068470" cy="675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>17593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>125325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F98FF61-603B-45D3-874B-54BEFD229C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1176983" y="1121179"/>
+          <a:ext cx="0" cy="291663"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>49124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132945</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2767754-440C-430B-8EB2-33B18C62A36E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8260693" y="1152710"/>
+          <a:ext cx="0" cy="267752"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6847710-E66B-41AA-ADDF-D59BCDBC2684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2423160" y="1836420"/>
+          <a:ext cx="0" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78252AD2-B7A0-4AF9-B7BD-8570833A39CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="419100" y="2118360"/>
+          <a:ext cx="2004060" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6278C902-F907-46BB-875A-06BB0717B88B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="441960" y="1371600"/>
+          <a:ext cx="0" cy="739140"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20AE24EB-61B8-430D-8F0A-C749228F5615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="472440" y="1356360"/>
+          <a:ext cx="228600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC23A0BA-84A9-4622-9B32-5EBC71A47CB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="708660" y="1082040"/>
+          <a:ext cx="0" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FB0B3F-2BE2-49EA-AF1F-529859514DEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="1836420"/>
+          <a:ext cx="0" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F429032-5220-4F03-9E14-4B1712128A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="556260" y="1981200"/>
+          <a:ext cx="647700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80B375A8-8FCB-4EBD-AA6E-8F29A4665CD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="563880" y="1440180"/>
+          <a:ext cx="0" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F58864-4BDC-4456-A49D-25DB5FFA5AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="586740" y="1447800"/>
+          <a:ext cx="274320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4D9BC74-7AE0-4E64-9894-CD2F50549568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="876300" y="1089660"/>
+          <a:ext cx="0" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23CFD54-8019-49DF-8400-69E0475BDF4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2346960" y="1097280"/>
+          <a:ext cx="0" cy="83820"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99376248-7E98-4732-850D-744FF29C5CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2339340" y="1173480"/>
+          <a:ext cx="655320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>78828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F2117D-6E47-4F7E-8A51-1F623AB003A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3014192" y="2469931"/>
+          <a:ext cx="0" cy="564407"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81197</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>81197</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58062A4A-603E-4D98-958F-E04E80B41ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1009343" y="2472300"/>
+          <a:ext cx="2004849" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175173</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E98C8D-C93F-473E-A238-3607F51732F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1138883" y="1991710"/>
+          <a:ext cx="0" cy="390635"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93952F4-43CA-4A25-95C1-761C537A1297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="1836420"/>
+          <a:ext cx="0" cy="175260"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8DD658-2125-4D7C-9C97-B6B6EFC3562B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4328160" y="2011680"/>
+          <a:ext cx="1935480" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6482</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECFF229-F221-4C7D-B280-031BE44AED27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6253743" y="2364828"/>
+          <a:ext cx="0" cy="1504206"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>534276</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>192689</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>175633</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B05669CC-D1B0-41A8-B3FD-8D0528BB69BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1147379" y="2382345"/>
+          <a:ext cx="5123793" cy="460"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>96345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE847F31-BD2B-481A-8D13-518D67650508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1024583" y="2014571"/>
+          <a:ext cx="0" cy="472877"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DBC74B-B464-40C8-BEFD-D6420BF6A7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324100" y="4213860"/>
+          <a:ext cx="7620" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2C8D69-2DDF-4F04-AD78-5199E911D577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="403860" y="4411980"/>
+          <a:ext cx="1920240" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82587FC3-CEB4-4BF1-AFA9-55651737E726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="419100" y="2667000"/>
+          <a:ext cx="22860" cy="1737360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>429172</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234C99D2-77C5-43AD-BBCE-5F7722E8BF1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1032204" y="3102917"/>
+          <a:ext cx="14645727" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824E10C1-0026-4C99-8F5E-9403CB08CBF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1036320" y="1089660"/>
+          <a:ext cx="0" cy="350520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFE4DFD-6AC1-4833-9688-6DE312433B3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2392680" y="4945380"/>
+          <a:ext cx="0" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A4E9EE-4569-4E2F-B409-0A8232FD0BF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="441960" y="5090160"/>
+          <a:ext cx="1956435" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD97D56F-CC53-455B-8FBD-E69662604DF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="434340" y="4556760"/>
+          <a:ext cx="0" cy="548640"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D92C3CD4-F8B5-4760-A5AD-6697C45C46B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="426720" y="4541520"/>
+          <a:ext cx="449580" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B62AFAF-FF98-4368-B411-D6006AC87692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="868680" y="4183380"/>
+          <a:ext cx="15240" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488017</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>72278</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591456EC-977E-4E2E-9BF7-B5B2ED0C226E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3318510" y="4956810"/>
+          <a:ext cx="11767" cy="236108"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289562</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219D7230-2419-431D-9286-C2A1E380E111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="289562" y="5168265"/>
+          <a:ext cx="3038473" cy="13336"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>286871</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011B78E0-D414-45CB-8A03-5AF9BAFD3E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="286871" y="683111"/>
+          <a:ext cx="26894" cy="4491317"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>322729</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B304E2F-1E97-4140-900F-518DFF02AFF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="322729" y="670560"/>
+          <a:ext cx="568811" cy="3586"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>280595</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1508EFC5-63AA-4EF7-B692-11E28D7E1CC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="890195" y="353210"/>
+          <a:ext cx="8965" cy="311972"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499782</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>508747</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4851F40B-303D-4F1A-9019-EA4FF3C3E975}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4523142" y="4937760"/>
+          <a:ext cx="8965" cy="317351"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>242047</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26EBFB0-FCA5-4AD2-8390-760E8DAB231C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="242047" y="5244465"/>
+          <a:ext cx="4314713" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>143438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C810442-32F8-4696-94AB-08CA4B1A3403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="224118" y="548640"/>
+          <a:ext cx="8964" cy="4715438"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>233082</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA08B33A-F554-4D25-A179-CA404565D1B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="233082" y="566570"/>
+          <a:ext cx="559398" cy="4930"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>173915</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABEB3A4-63A7-4C2C-ABEF-AB31E2601343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="783515" y="353210"/>
+          <a:ext cx="8965" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435908</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>435908</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3796EE3F-C89A-4FC4-B5A2-25B38A67EC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9606184" y="6800605"/>
+          <a:ext cx="0" cy="276361"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>718207</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Straight Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59146344-3D4A-4C50-AD22-7B5EFA96773D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9608426" y="7064481"/>
+          <a:ext cx="4633091" cy="8424"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>699903</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>699904</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>87587</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1925A170-606F-420C-8FE3-BA37E98529D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14223213" y="5080438"/>
+          <a:ext cx="1" cy="1996528"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624842</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>111965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>700690</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621287EE-7B86-4497-B47B-13B007A797B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1237945" y="5078103"/>
+          <a:ext cx="12986055" cy="17575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>166295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>630219</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477930C7-6DEC-49C1-B5D6-DEE0B39C23C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1234440" y="3092375"/>
+          <a:ext cx="5379" cy="146125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>270623</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>170890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>270623</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148897</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3854C542-18C3-4946-BD4B-E45006B30E8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10308002" y="6792407"/>
+          <a:ext cx="0" cy="161938"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560552</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>141668</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C310C35-EC56-4127-90CC-2B062F98B666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10323129" y="6934863"/>
+          <a:ext cx="3760733" cy="12253"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511590</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>536091</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>122621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A5EDA2A-2134-48A4-8D6E-43001A191D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14034900" y="5638712"/>
+          <a:ext cx="24501" cy="1289357"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CE1A89-B9D7-4DCF-B446-54FD1CE29216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426720" y="2689860"/>
+          <a:ext cx="541020" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82E3575B-F17F-4D59-9317-1000BF0B4676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="952500" y="2529840"/>
+          <a:ext cx="15240" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610DE980-700B-4AE6-8741-4E5B0146598B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="952500" y="3627120"/>
+          <a:ext cx="7620" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358141</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB5DE194-E243-4A92-A210-A50906DE4577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="971244" y="5651695"/>
+          <a:ext cx="13060066" cy="26256"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>418275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>140137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438368</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D6BB3A-DE5A-4FB9-AC32-D9C90EB72BDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15667034" y="3083034"/>
+          <a:ext cx="20093" cy="3011828"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306553</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>455448</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>26276</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41B5633C-BDCE-4651-8D3F-6CD0A6D814B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10343932" y="6279931"/>
+          <a:ext cx="4659585" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520780</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520780</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E845117-D78A-4C5D-A46C-9FAA4F804D44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549746" y="4973758"/>
+          <a:ext cx="0" cy="260131"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DB2141-E4A4-41F5-9048-0E9516E15CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7109460" y="3642360"/>
+          <a:ext cx="0" cy="106680"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>372234</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>70069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>201448</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB31E23-8170-4558-96C9-5294ADA5E600}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5390924" y="5404069"/>
+          <a:ext cx="2868455" cy="13751"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>516758</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1042275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1508CC77-E87D-4567-8B4A-B2A44FBFA781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4545724" y="5233889"/>
+          <a:ext cx="3363310" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1037635</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>113862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1042275</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46FC899-45AC-43A3-936C-5115E257DFE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7904394" y="2321034"/>
+          <a:ext cx="4640" cy="2905236"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162641</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>8759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192427</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6DC723-41BC-4B1C-9CD1-D7B6E69CB1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8220572" y="2215931"/>
+          <a:ext cx="29786" cy="3362960"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1042275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>98274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Straight Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E391E8-F1A6-4805-B848-057F1B7AEF7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1268423" y="2305446"/>
+          <a:ext cx="6640611" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9979C45-D67C-4165-87CE-22A4E3ABBB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1291283" y="1991710"/>
+          <a:ext cx="0" cy="346842"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166414</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22162</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE70B26-0466-49C1-8967-5301FCB9ABFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1413204" y="2224692"/>
+          <a:ext cx="6811141" cy="4642"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>805794</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35035</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Straight Arrow Connector 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFFE3AD-450B-47D9-BB6A-71C65A406884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1418897" y="1991711"/>
+          <a:ext cx="1926" cy="250496"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312858</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312858</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Straight Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68DD37EC-275A-4398-B283-2528AE1D3AAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10203618" y="4213860"/>
+          <a:ext cx="0" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E5A8A9-03C9-48D5-B052-B5476E2B8E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="2560320"/>
+          <a:ext cx="0" cy="129540"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C3756F-0776-420F-BA58-7C138FAB156C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4373880" y="2697480"/>
+          <a:ext cx="2514600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{939A92F1-03AE-43F5-9643-38A46F21F316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6880860" y="1729740"/>
+          <a:ext cx="0" cy="975360"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071780B6-8188-451C-955A-C7ECF75C9AE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6568440" y="1744980"/>
+          <a:ext cx="342900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90303</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A547914-536E-41E2-AFF5-1BDCED5B9742}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6566163" y="3039241"/>
+          <a:ext cx="0" cy="361821"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>569311</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>103271</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F8F528-65D1-4918-AAD5-C1782F64F759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1182414" y="3046168"/>
+          <a:ext cx="5391369" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>583844</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>583844</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>113862</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Arrow Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967CC0EF-65D3-4C46-946C-E5B43D27EE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1196947" y="2727435"/>
+          <a:ext cx="0" cy="329324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455448</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>455448</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>148896</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56BAD900-206F-4884-9A23-4150453A8FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8365008" y="4214998"/>
+          <a:ext cx="0" cy="323018"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464207</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>350345</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Straight Connector 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBE9E35-7043-45F2-9F24-905EA120368D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8522138" y="6411310"/>
+          <a:ext cx="5351517" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>353145</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>170005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>385380</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Straight Arrow Connector 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEF1680-9CD4-4532-B1F5-33F78F7D66E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="962745" y="1084405"/>
+          <a:ext cx="32235" cy="474980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>394138</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306552</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>87586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="Straight Connector 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE864C24-572C-4F3F-A42F-27E6270C1BD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1007241" y="3380828"/>
+          <a:ext cx="12822621" cy="17517"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>306551</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Straight Connector 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73774928-B556-42B5-9429-5D267A44FB13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="13829861" y="3389588"/>
+          <a:ext cx="35035" cy="3021723"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420413</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>8759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>420413</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Straight Connector 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06BE9461-4EDB-469E-BC9A-5418FB306B78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7287172" y="376621"/>
+          <a:ext cx="0" cy="148896"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>674414</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>411655</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>148891</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Straight Connector 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B4A08BF-F9E3-4888-B657-964706C83F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1287517" y="499236"/>
+          <a:ext cx="5990897" cy="17517"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>665656</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>665656</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>131379</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Straight Arrow Connector 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91FF0378-C44D-494E-B5E8-215F9830B220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1278759" y="350345"/>
+          <a:ext cx="0" cy="148896"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="Straight Connector 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29269C3C-5192-4608-AFA5-9AB2822DE349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2198414" y="1103586"/>
+          <a:ext cx="0" cy="131380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>280276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525517</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>140138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="Straight Connector 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EABAE99-351A-4790-B3F9-6A5C527E37E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2198414" y="1243724"/>
+          <a:ext cx="3345793" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534276</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>534276</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>122621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="Straight Arrow Connector 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368F18D4-858D-450E-A621-8B0CBF4AF502}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5552966" y="367862"/>
+          <a:ext cx="0" cy="858345"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411655</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411656</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68BEAB1D-9183-4F03-8029-03579D630D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4440621" y="2023241"/>
+          <a:ext cx="1" cy="131380"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>411655</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="Straight Connector 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F34915C-4A1C-4D16-92C9-50C21D4E5397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4440621" y="1979448"/>
+          <a:ext cx="805794" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>218965</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>218965</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>140141</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Straight Connector 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF891E4B-F1E8-4FC0-ABEC-FC9C094729EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5237655" y="1620347"/>
+          <a:ext cx="0" cy="543035"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157658</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>227724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>157658</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="Straight Connector 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C5C676D-804D-4D41-B289-AE04DA75A038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="875862" y="1445175"/>
+          <a:ext cx="4370552" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>262759</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="Straight Arrow Connector 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4887E21B-2C34-48CF-B98D-2C023D9F3FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="875862" y="1077310"/>
+          <a:ext cx="0" cy="560552"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385379</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>166414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385379</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>87586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="Straight Connector 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69F34A6-8A22-4862-A213-CB2D84FFFDA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4414345" y="5500414"/>
+          <a:ext cx="0" cy="289034"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>367859</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525515</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="141" name="Straight Connector 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{003F9A7B-2E0A-431F-9085-98B545EFC149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4396825" y="5798206"/>
+          <a:ext cx="4186621" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525517</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525517</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>96346</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="Straight Connector 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2170AFBE-C91E-40BF-AD89-3BAF24FE0D86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8583448" y="2977931"/>
+          <a:ext cx="0" cy="2636346"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>691931</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>543033</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35038</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="Straight Connector 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5623078A-EBF7-43FC-955D-27F18971C6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1305034" y="2977935"/>
+          <a:ext cx="7295930" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>709448</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>709448</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="Straight Arrow Connector 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3278D117-F141-451C-922E-9A8CC71D3114}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1322551" y="2715171"/>
+          <a:ext cx="0" cy="271519"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937173</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8758</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>937173</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>166413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="176" name="Straight Connector 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AEA02C-BF54-4DD3-8004-D15247D436AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1550276" y="2767724"/>
+          <a:ext cx="0" cy="157655"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>945931</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429172</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="178" name="Straight Connector 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61779283-CDF2-4841-9B0D-168ACE71B050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1559034" y="2916621"/>
+          <a:ext cx="6928069" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429172</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429172</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="180" name="Straight Connector 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F6A515-332F-4957-8731-25AD5918F55D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8487103" y="1331310"/>
+          <a:ext cx="0" cy="1585312"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>437931</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>429174</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="183" name="Straight Connector 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C290F4B5-CC7E-4BB7-9F49-C73C44354BE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1051034" y="1340069"/>
+          <a:ext cx="7436071" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>446690</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>446690</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="Straight Arrow Connector 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B998429D-1161-4F90-B881-AF27C2F7FCE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1059793" y="893379"/>
+          <a:ext cx="0" cy="446690"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -13208,8 +18498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681EFBCD-5AC7-4FC5-A757-DB10F8D26DBF}">
   <dimension ref="B1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13521,4 +18811,339 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA47A736-660C-4E1F-BF4A-1CFBD3A03E14}">
+  <dimension ref="B2:N37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="19" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="J11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>